--- a/biology/Botanique/Orthophosphate_de_fer/Orthophosphate_de_fer.xlsx
+++ b/biology/Botanique/Orthophosphate_de_fer/Orthophosphate_de_fer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'orthophosphate de fer, le phosphate de fer III ou l'orthophosphate de fer hydraté, est des sels de fer III existant naturellement dans la nature.
@@ -513,9 +525,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forme la plus commune du phosphate de fer III adopte la structure de l'α-quartz dans laquelle les atomes de phosphore et de fer sont dans une géométrie tétraédrique. À haute pression, la structure se transforme en une plus dense avec des centres de fer octaédriques. Deux autres phases orthorhombiques et une monoclinique sont connues. Dans les deux polymorphes du dihydrate, les centres Fe (III) sont octaédriques avec deux ligands eau en position cis[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forme la plus commune du phosphate de fer III adopte la structure de l'α-quartz dans laquelle les atomes de phosphore et de fer sont dans une géométrie tétraédrique. À haute pression, la structure se transforme en une plus dense avec des centres de fer octaédriques. Deux autres phases orthorhombiques et une monoclinique sont connues. Dans les deux polymorphes du dihydrate, les centres Fe (III) sont octaédriques avec deux ligands eau en position cis.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Propriétés biologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ingéré par les gastéropodes terrestres, c'est un molluscicide qui provoque rapidement leur mort en bloquant leur mode d'alimentation.
 D'origine naturelle, il n’est pas réputé toxique pour les vers de terre, les insectes et les oiseaux et n'a pas d'effets sur les hérissons et la plupart des animaux communs. Il est néanmoins irritant pour la peau, les voies respiratoires et plus particulièrement les yeux.
@@ -576,9 +592,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est largement utilisé sous différentes formes[7],[8] pour lutter contre les limaces et les escargots dans les jardins[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est largement utilisé sous différentes formes, pour lutter contre les limaces et les escargots dans les jardins.
 Utilisable en agriculture biologique, c'est un des seuls moyens curatif efficace de se prémunir contre les dégâts dans les jardins potagers et ornementaux.
 </t>
         </is>
